--- a/tests/demo.xlsx
+++ b/tests/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve">Age</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t xml:space="preserve">Weight / Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +170,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -256,7 +283,394 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>TITLE!!!</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="91509291"/>
+        <c:axId val="12235995"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91509291"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TITLE_x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12235995"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12235995"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TITLE_y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91509291"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -270,9 +684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -282,7 +696,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2905200" y="830520"/>
-          <a:ext cx="981720" cy="29160"/>
+          <a:ext cx="981360" cy="28800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -332,9 +746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -344,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3874680" y="556200"/>
-          <a:ext cx="1050120" cy="653760"/>
+          <a:ext cx="1049760" cy="653400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -452,15 +866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
+      <xdr:colOff>58680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>355320</xdr:colOff>
+      <xdr:colOff>354240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -469,8 +883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2859480" y="2277000"/>
-          <a:ext cx="295920" cy="272880"/>
+          <a:off x="2858760" y="2276280"/>
+          <a:ext cx="295560" cy="272520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -520,9 +934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371880</xdr:colOff>
+      <xdr:colOff>371520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -532,7 +946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2883960" y="2575440"/>
-          <a:ext cx="1050120" cy="653760"/>
+          <a:ext cx="1049760" cy="653400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,9 +1060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -658,7 +1072,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="8521560" y="1149120"/>
-          <a:ext cx="692280" cy="356760"/>
+          <a:ext cx="691920" cy="356400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -708,9 +1122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>364320</xdr:colOff>
+      <xdr:colOff>363960</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,7 +1134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8598960" y="1562040"/>
-          <a:ext cx="1423440" cy="653760"/>
+          <a:ext cx="1423080" cy="653400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,6 +1239,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>670320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2282760" y="3411000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -833,10 +1277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1100,6 +1544,39 @@
       <c r="F12" s="4" t="n">
         <f aca="false">F11/F10</f>
         <v>1.83333333333333</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1125,13 +1602,13 @@
   </sheetPr>
   <dimension ref="C13:J36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tests/demo.xlsx
+++ b/tests/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="24"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">THIS COMMENT SHOULD DISAPPEAR!!!</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C5" authorId="0">
       <text>
         <r>
@@ -89,7 +104,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="C13" authorId="0">
@@ -142,13 +157,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,25 +180,48 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -249,24 +286,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,7 +387,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -362,11 +403,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
@@ -375,11 +411,6 @@
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>TITLE!!!</a:t>
@@ -419,6 +450,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -470,11 +503,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91509291"/>
-        <c:axId val="12235995"/>
+        <c:axId val="66213255"/>
+        <c:axId val="25605338"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91509291"/>
+        <c:axId val="66213255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,11 +524,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -504,11 +532,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>TITLE_x</a:t>
@@ -531,30 +554,26 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12235995"/>
+        <c:crossAx val="25605338"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12235995"/>
+        <c:axId val="25605338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,11 +599,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -593,11 +607,6 @@
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>TITLE_y</a:t>
@@ -607,7 +616,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -620,25 +629,20 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91509291"/>
+        <c:crossAx val="66213255"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -658,6 +662,17 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -678,15 +693,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
+      <xdr:colOff>104400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -695,8 +710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2905200" y="830520"/>
-          <a:ext cx="981360" cy="28800"/>
+          <a:off x="2904480" y="830520"/>
+          <a:ext cx="981000" cy="28440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -719,7 +734,7 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="arrow" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -746,9 +761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>599760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -758,7 +773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3874680" y="556200"/>
-          <a:ext cx="1049760" cy="653400"/>
+          <a:ext cx="1049400" cy="653040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,84 +794,60 @@
       <xdr:txBody>
         <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>column cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -872,9 +863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -884,7 +875,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2858760" y="2276280"/>
-          <a:ext cx="295560" cy="272520"/>
+          <a:ext cx="295200" cy="272160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -907,7 +898,7 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="arrow" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -934,9 +925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
+      <xdr:colOff>371160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -946,7 +937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2883960" y="2575440"/>
-          <a:ext cx="1049760" cy="653400"/>
+          <a:ext cx="1049400" cy="653040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,84 +958,60 @@
       <xdr:txBody>
         <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>row cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1054,15 +1021,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
+      <xdr:colOff>386640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1071,8 +1038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8521560" y="1149120"/>
-          <a:ext cx="691920" cy="356400"/>
+          <a:off x="8520840" y="1148400"/>
+          <a:ext cx="691560" cy="356040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1095,7 +1062,7 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="arrow" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1122,9 +1089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>363600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1134,7 +1101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8598960" y="1562040"/>
-          <a:ext cx="1423080" cy="653400"/>
+          <a:ext cx="1422720" cy="653040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,84 +1122,60 @@
       <xdr:txBody>
         <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>row+column cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-NZ" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-NZ" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="나눔고딕"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1248,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>670320</xdr:colOff>
+      <xdr:colOff>669960</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1259,7 +1202,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2282760" y="3411000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3323160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1279,16 +1222,16 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,16 +1244,16 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -1336,30 +1279,30 @@
       <c r="B3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">B3/A3</f>
         <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <f aca="false">$H3/I$2</f>
         <v>2.5</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <f aca="false">$H3/J$2</f>
         <v>1.25</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <f aca="false">$H3/K$2</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <f aca="false">$H3/L$2</f>
         <v>0.625</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <f aca="false">$H3/M$2</f>
         <v>0.5</v>
       </c>
@@ -1371,30 +1314,30 @@
       <c r="B4" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">B4/A4</f>
         <v>2.33333333333333</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <f aca="false">$H4/I$2</f>
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <f aca="false">$H4/J$2</f>
         <v>2.5</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <f aca="false">$H4/K$2</f>
         <v>1.66666666666667</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <f aca="false">$H4/L$2</f>
         <v>1.25</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <f aca="false">$H4/M$2</f>
         <v>1</v>
       </c>
@@ -1406,30 +1349,30 @@
       <c r="B5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">B5/A5</f>
         <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <f aca="false">$H5/I$2</f>
         <v>7.5</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="3" t="n">
         <f aca="false">$H5/J$2</f>
         <v>3.75</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <f aca="false">$H5/K$2</f>
         <v>2.5</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <f aca="false">$H5/L$2</f>
         <v>1.875</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <f aca="false">$H5/M$2</f>
         <v>1.5</v>
       </c>
@@ -1441,30 +1384,30 @@
       <c r="B6" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <f aca="false">B6/A6</f>
         <v>2.08333333333333</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <f aca="false">$H6/I$2</f>
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <f aca="false">$H6/J$2</f>
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <f aca="false">$H6/K$2</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <f aca="false">$H6/L$2</f>
         <v>2.5</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="3" t="n">
         <f aca="false">$H6/M$2</f>
         <v>2</v>
       </c>
@@ -1476,79 +1419,79 @@
       <c r="B7" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">B7/A7</f>
         <v>1.83333333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <f aca="false">B11/B10</f>
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <f aca="false">C11/C10</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <f aca="false">D11/D10</f>
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <f aca="false">E11/E10</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <f aca="false">F11/F10</f>
         <v>1.83333333333333</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1556,7 +1499,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1564,7 +1507,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1572,7 +1515,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1585,7 +1528,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1602,262 +1545,262 @@
   </sheetPr>
   <dimension ref="C13:J36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.57"/>
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/tests/demo.xlsx
+++ b/tests/demo.xlsx
@@ -157,12 +157,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,6 +185,53 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Andale Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFF68E76"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF95231F"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Latin Modern Roman Slanted"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -210,7 +258,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -221,11 +269,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +288,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF58220"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A1816"/>
+        <bgColor rgb="FF95231F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94070A"/>
+        <bgColor rgb="FF95231F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFF58220"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -258,6 +324,118 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="thick"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="hair"/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -286,7 +464,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,7 +477,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,11 +493,187 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +696,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF94070A"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -347,7 +709,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF68E76"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -355,7 +717,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF6A1816"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
@@ -371,14 +733,14 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF95231F"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -419,6 +781,12 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -503,11 +871,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="66213255"/>
-        <c:axId val="25605338"/>
+        <c:axId val="23818541"/>
+        <c:axId val="91278636"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66213255"/>
+        <c:axId val="23818541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,6 +908,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -566,14 +940,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25605338"/>
+        <c:crossAx val="91278636"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25605338"/>
+        <c:axId val="91278636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,6 +989,12 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -641,7 +1021,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66213255"/>
+        <c:crossAx val="23818541"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -693,15 +1073,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>320400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,8 +1090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2904480" y="830520"/>
-          <a:ext cx="981000" cy="28440"/>
+          <a:off x="2905920" y="823320"/>
+          <a:ext cx="979200" cy="26640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -755,15 +1135,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -772,8 +1152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874680" y="556200"/>
-          <a:ext cx="1049400" cy="653040"/>
+          <a:off x="3877560" y="556200"/>
+          <a:ext cx="1047600" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,7 +1180,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -808,8 +1188,8 @@
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -819,7 +1199,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -827,8 +1207,8 @@
             </a:rPr>
             <a:t>column cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -838,7 +1218,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -846,8 +1226,8 @@
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -856,16 +1236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>353880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -874,8 +1254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2858760" y="2276280"/>
-          <a:ext cx="295200" cy="272160"/>
+          <a:off x="2269440" y="1717200"/>
+          <a:ext cx="294120" cy="270360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -919,15 +1299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
+      <xdr:colOff>369720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -936,8 +1316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2883960" y="2575440"/>
-          <a:ext cx="1049400" cy="653040"/>
+          <a:off x="2886840" y="2553120"/>
+          <a:ext cx="1047600" cy="627840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,7 +1344,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -972,8 +1352,8 @@
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -983,7 +1363,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -991,8 +1371,8 @@
             </a:rPr>
             <a:t>row cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1002,7 +1382,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1010,8 +1390,8 @@
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1020,16 +1400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>386640</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>456840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1038,8 +1418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8520840" y="1148400"/>
-          <a:ext cx="691560" cy="356040"/>
+          <a:off x="7141680" y="422280"/>
+          <a:ext cx="689760" cy="354240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1083,15 +1463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>464760</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>362160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1100,8 +1480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8598960" y="1562040"/>
-          <a:ext cx="1422720" cy="653040"/>
+          <a:off x="8601840" y="1547280"/>
+          <a:ext cx="1420920" cy="651240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1128,7 +1508,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1136,8 +1516,8 @@
             </a:rPr>
             <a:t>This is a </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1147,7 +1527,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1155,8 +1535,8 @@
             </a:rPr>
             <a:t>row+column cell </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1166,7 +1546,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1174,8 +1554,8 @@
             </a:rPr>
             <a:t>Formula Block</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="나눔고딕"/>
+          <a:endParaRPr b="0" lang="en" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1187,13 +1567,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>501840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>669960</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>668160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1201,8 +1581,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2282760" y="3411000"/>
-        <a:ext cx="5759280" cy="3323160"/>
+        <a:off x="2284200" y="3358080"/>
+        <a:ext cx="5758560" cy="3245040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1220,17 +1600,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.01"/>
   </cols>
   <sheetData>
@@ -1307,7 +1687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>15</v>
       </c>
@@ -1325,15 +1705,15 @@
         <f aca="false">$H4/I$2</f>
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="4" t="n">
         <f aca="false">$H4/J$2</f>
         <v>2.5</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <f aca="false">$H4/K$2</f>
         <v>1.66666666666667</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="4" t="n">
         <f aca="false">$H4/L$2</f>
         <v>1.25</v>
       </c>
@@ -1342,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>20</v>
       </c>
@@ -1360,19 +1740,19 @@
         <f aca="false">$H5/I$2</f>
         <v>7.5</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="4" t="n">
         <f aca="false">$H5/J$2</f>
         <v>3.75</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <f aca="false">$H5/K$2</f>
         <v>2.5</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <f aca="false">$H5/L$2</f>
         <v>1.875</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="5" t="n">
         <f aca="false">$H5/M$2</f>
         <v>1.5</v>
       </c>
@@ -1425,93 +1805,461 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="6" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="6" t="n">
         <v>55</v>
       </c>
+      <c r="N11" s="0" t="n">
+        <v>123456789</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="7" t="n">
         <f aca="false">B11/B10</f>
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <f aca="false">C11/C10</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="7" t="n">
         <f aca="false">D11/D10</f>
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="7" t="n">
         <f aca="false">E11/E10</f>
         <v>2.08333333333333</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="7" t="n">
         <f aca="false">F11/F10</f>
         <v>1.83333333333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N15" s="10" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O15" s="10" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P15" s="10" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="12" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N16" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L17" s="15" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N17" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P17" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q17" s="16" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L18" s="17" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N18" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O18" s="18" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P18" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q18" s="19" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N19" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O19" s="21" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P19" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q19" s="22" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L20" s="23" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N20" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O20" s="24" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P20" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q20" s="25" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N21" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O21" s="26" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P21" s="27" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q21" s="28" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N22" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O22" s="27" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P22" s="27" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q22" s="29" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L23" s="23" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N23" s="13" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O23" s="27" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P23" s="27" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q23" s="30" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L24" s="12" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N24" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O24" s="32" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P24" s="32" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q24" s="28" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L25" s="33" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N25" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O25" s="32" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P25" s="32" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q25" s="29" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,6 +2268,236 @@
       </c>
       <c r="B26" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" s="34" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N26" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O26" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P26" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q26" s="35" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L27" s="36" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M27" s="37" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N27" s="38" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O27" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P27" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q27" s="16" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="L28" s="39" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M28" s="40" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N28" s="41" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O28" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P28" s="31" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q28" s="42" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L29" s="43" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M29" s="40" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N29" s="40" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O29" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q29" s="44" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="L30" s="45" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M30" s="40" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N30" s="46" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q30" s="47" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L31" s="48" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q31" s="47" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L32" s="48" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M32" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q32" s="47" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="L33" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="N33" s="49" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="O33" s="50" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P33" s="50" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="Q33" s="51" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +2524,7 @@
   <dimension ref="C13:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="O21:Q25 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1555,252 +2533,252 @@
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/tests/demo.xlsx
+++ b/tests/demo.xlsx
@@ -153,9 +153,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00000;[RED]\-0.00000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -537,6 +539,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,12 +567,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -749,7 +751,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -871,11 +873,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23818541"/>
-        <c:axId val="91278636"/>
+        <c:axId val="65390968"/>
+        <c:axId val="67308049"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23818541"/>
+        <c:axId val="65390968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,14 +942,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91278636"/>
+        <c:crossAx val="67308049"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91278636"/>
+        <c:axId val="67308049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23818541"/>
+        <c:crossAx val="65390968"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1073,15 +1075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>320400</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1090,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2905920" y="823320"/>
-          <a:ext cx="979200" cy="26640"/>
+          <a:off x="2905200" y="823680"/>
+          <a:ext cx="978120" cy="25920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1141,9 +1143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1153,7 +1155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3877560" y="556200"/>
-          <a:ext cx="1047600" cy="636480"/>
+          <a:ext cx="1046880" cy="636120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,15 +1239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:colOff>192600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>781200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:colOff>486000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1254,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2269440" y="1717200"/>
-          <a:ext cx="294120" cy="270360"/>
+          <a:off x="1974960" y="1446840"/>
+          <a:ext cx="293400" cy="269640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1299,15 +1301,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
+      <xdr:colOff>369000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1316,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886840" y="2553120"/>
-          <a:ext cx="1047600" cy="627840"/>
+          <a:off x="2887200" y="2553480"/>
+          <a:ext cx="1046520" cy="626760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,16 +1402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1418,8 +1420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7141680" y="422280"/>
-          <a:ext cx="689760" cy="354240"/>
+          <a:off x="6450840" y="66960"/>
+          <a:ext cx="689400" cy="353880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1465,13 +1467,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>465120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>362160</xdr:colOff>
+      <xdr:colOff>361800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1480,8 +1482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601840" y="1547280"/>
-          <a:ext cx="1420920" cy="651240"/>
+          <a:off x="8601840" y="1547640"/>
+          <a:ext cx="1420560" cy="650520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,13 +1569,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>501840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:colOff>667800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1581,8 +1583,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2284200" y="3358080"/>
-        <a:ext cx="5758560" cy="3245040"/>
+        <a:off x="2284200" y="3724920"/>
+        <a:ext cx="5758200" cy="3243960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1603,7 +1605,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21:Q25"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1611,7 +1613,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="9.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2016,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="42.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K18" s="0" t="n">
         <v>17</v>
       </c>
@@ -2024,11 +2028,11 @@
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
-      <c r="N18" s="13" t="n">
-        <f aca="false">$N$11</f>
-        <v>123456789</v>
-      </c>
-      <c r="O18" s="18" t="n">
+      <c r="N18" s="18" t="n">
+        <f aca="false">-SQRT($N$11)</f>
+        <v>-11111.1110605556</v>
+      </c>
+      <c r="O18" s="19" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2036,7 +2040,7 @@
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
-      <c r="Q18" s="19" t="n">
+      <c r="Q18" s="20" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="K19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L19" s="20" t="n">
+      <c r="L19" s="21" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2057,7 +2061,7 @@
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
-      <c r="O19" s="21" t="n">
+      <c r="O19" s="22" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2065,7 +2069,7 @@
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
-      <c r="Q19" s="22" t="n">
+      <c r="Q19" s="23" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2074,7 +2078,7 @@
       <c r="K20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="L20" s="23" t="n">
+      <c r="L20" s="24" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2082,15 +2086,15 @@
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
-      <c r="N20" s="13" t="n">
-        <f aca="false">$N$11</f>
-        <v>123456789</v>
-      </c>
-      <c r="O20" s="24" t="n">
-        <f aca="false">$N$11</f>
-        <v>123456789</v>
-      </c>
-      <c r="P20" s="13" t="n">
+      <c r="N20" s="25" t="n">
+        <f aca="false">$N$11/-42.42</f>
+        <v>-2910343.91796322</v>
+      </c>
+      <c r="O20" s="25" t="n">
+        <f aca="false">$N$11</f>
+        <v>123456789</v>
+      </c>
+      <c r="P20" s="25" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="K22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="L22" s="20" t="n">
+      <c r="L22" s="21" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2167,7 +2171,7 @@
       <c r="K23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="L23" s="23" t="n">
+      <c r="L23" s="24" t="n">
         <f aca="false">$N$11</f>
         <v>123456789</v>
       </c>
@@ -2501,8 +2505,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N20:Q20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2524,7 +2529,7 @@
   <dimension ref="C13:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="O21:Q25 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
